--- a/compiled.xlsx
+++ b/compiled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90401ea6d03969b8/Wedding Planning/Website/antonioParrellaTaraArdalich.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{779E544C-0835-4B2D-BB92-6E1380D1EA3F}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6BFF1A9-C896-4080-9462-65AD050E038E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
   <si>
     <t>Will Allan</t>
   </si>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -833,9 +833,6 @@
       <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -845,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>133</v>
@@ -928,9 +925,6 @@
       <c r="C9" t="s">
         <v>139</v>
       </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -942,9 +936,6 @@
       <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -967,6 +958,9 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="F12" t="s">
         <v>141</v>
       </c>
@@ -1022,6 +1016,9 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1042,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1118,6 +1115,9 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1180,6 +1180,9 @@
       </c>
       <c r="B32" t="s">
         <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
